--- a/artfynd/A 65056-2019.xlsx
+++ b/artfynd/A 65056-2019.xlsx
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>91961476</v>
+        <v>91961072</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,34 +1032,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Finnkläppen, Ång</t>
+          <t>Herrestabodarna, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>659083.9335428606</v>
+        <v>659072.1775210652</v>
       </c>
       <c r="R5" t="n">
-        <v>7006628.861753914</v>
+        <v>7006711.124582773</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>91961072</v>
+        <v>91962611</v>
       </c>
       <c r="B6" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>659072.1775210652</v>
+        <v>659190.1617904444</v>
       </c>
       <c r="R6" t="n">
-        <v>7006711.124582773</v>
+        <v>7006947.794306196</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1214,6 +1214,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Par i lämplig biotop</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1240,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91962611</v>
+        <v>91960450</v>
       </c>
       <c r="B7" t="n">
-        <v>56395</v>
+        <v>89392</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1285,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>659190.1617904444</v>
+        <v>659251.2029465982</v>
       </c>
       <c r="R7" t="n">
-        <v>7006947.794306196</v>
+        <v>7007006.025185607</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1326,11 +1331,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Par i lämplig biotop</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1357,10 +1357,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>91961302</v>
+        <v>91960449</v>
       </c>
       <c r="B8" t="n">
-        <v>73631</v>
+        <v>89392</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1369,38 +1369,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6426</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Finnkläppen, Ång</t>
+          <t>Herrestabodarna, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>659094.0677532183</v>
+        <v>659281.9627203951</v>
       </c>
       <c r="R8" t="n">
-        <v>7006634.792985627</v>
+        <v>7006906.147980729</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>91960450</v>
+        <v>91960459</v>
       </c>
       <c r="B9" t="n">
         <v>89392</v>
@@ -1505,14 +1505,14 @@
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Herrestabodarna, Ång</t>
+          <t>Finnkläppen, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>659251.2029465982</v>
+        <v>659224.9334416302</v>
       </c>
       <c r="R9" t="n">
-        <v>7007006.025185607</v>
+        <v>7006748.072361713</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1581,10 +1581,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91960449</v>
+        <v>91960319</v>
       </c>
       <c r="B10" t="n">
-        <v>89392</v>
+        <v>77541</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1597,21 +1597,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>185</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1621,10 +1621,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>659281.9627203951</v>
+        <v>659232.9084223242</v>
       </c>
       <c r="R10" t="n">
-        <v>7006906.147980729</v>
+        <v>7006797.806848564</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1693,7 +1693,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>91960459</v>
+        <v>91960462</v>
       </c>
       <c r="B11" t="n">
         <v>89392</v>
@@ -1729,14 +1729,14 @@
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Finnkläppen, Ång</t>
+          <t>Herrestabodarna, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>659224.9334416302</v>
+        <v>659237.9128536507</v>
       </c>
       <c r="R11" t="n">
-        <v>7006748.072361713</v>
+        <v>7006779.041238324</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>91960319</v>
+        <v>91960753</v>
       </c>
       <c r="B12" t="n">
-        <v>77541</v>
+        <v>78596</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1817,25 +1817,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>185</v>
+        <v>6462</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>659232.9084223242</v>
+        <v>659272.828099279</v>
       </c>
       <c r="R12" t="n">
-        <v>7006797.806848564</v>
+        <v>7006788.004869465</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1917,10 +1917,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>91960462</v>
+        <v>91960346</v>
       </c>
       <c r="B13" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1929,25 +1929,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1957,10 +1957,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>659237.9128536507</v>
+        <v>659313.1460876486</v>
       </c>
       <c r="R13" t="n">
-        <v>7006779.041238324</v>
+        <v>7006944.803038528</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2029,10 +2029,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>91960753</v>
+        <v>91960456</v>
       </c>
       <c r="B14" t="n">
-        <v>78596</v>
+        <v>89392</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2041,25 +2041,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>659272.828099279</v>
+        <v>659353.8795536701</v>
       </c>
       <c r="R14" t="n">
-        <v>7006788.004869465</v>
+        <v>7006936.853411513</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2141,10 +2141,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>91960346</v>
+        <v>91960464</v>
       </c>
       <c r="B15" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2153,25 +2153,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2181,10 +2181,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>659313.1460876486</v>
+        <v>659227.1340141161</v>
       </c>
       <c r="R15" t="n">
-        <v>7006944.803038528</v>
+        <v>7006786.205500577</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>91960456</v>
+        <v>91960451</v>
       </c>
       <c r="B16" t="n">
         <v>89392</v>
@@ -2293,10 +2293,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>659353.8795536701</v>
+        <v>659255.1834092112</v>
       </c>
       <c r="R16" t="n">
-        <v>7006936.853411513</v>
+        <v>7007008.031952608</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2365,10 +2365,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>91960464</v>
+        <v>91961474</v>
       </c>
       <c r="B17" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2381,21 +2381,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2405,10 +2405,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>659227.1340141161</v>
+        <v>659310.981152857</v>
       </c>
       <c r="R17" t="n">
-        <v>7006786.205500577</v>
+        <v>7006951.938709745</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>91961374</v>
+        <v>91962610</v>
       </c>
       <c r="B18" t="n">
-        <v>81236</v>
+        <v>56395</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2493,34 +2493,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Finnkläppen, Ång</t>
+          <t>Herrestabodarna, Ång</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>659095.0166560742</v>
+        <v>659239.0762625488</v>
       </c>
       <c r="R18" t="n">
-        <v>7006633.934321265</v>
+        <v>7006792.226079228</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2589,10 +2589,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>91960451</v>
+        <v>91961071</v>
       </c>
       <c r="B19" t="n">
-        <v>89392</v>
+        <v>78569</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2605,21 +2605,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>659255.1834092112</v>
+        <v>659273.777010394</v>
       </c>
       <c r="R19" t="n">
-        <v>7007008.031952608</v>
+        <v>7006787.146297781</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2701,10 +2701,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>91961474</v>
+        <v>91961371</v>
       </c>
       <c r="B20" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2717,21 +2717,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2741,10 +2741,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>659310.981152857</v>
+        <v>659290.9019446641</v>
       </c>
       <c r="R20" t="n">
-        <v>7006951.938709745</v>
+        <v>7006917.905069729</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>91962610</v>
+        <v>107512085</v>
       </c>
       <c r="B21" t="n">
-        <v>56395</v>
+        <v>89356</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2825,41 +2825,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Herrestabodarna, Ång</t>
+          <t>Norr om Översttjärn, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>659239.0762625488</v>
+        <v>659279.1509287338</v>
       </c>
       <c r="R21" t="n">
-        <v>7006792.226079228</v>
+        <v>7006953.990608242</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2909,26 +2909,35 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Låga av gran (GRANLÅGA)</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Anders Engström</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr"/>
+          <t>Via Anders Engström</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>91961071</v>
+        <v>107512086</v>
       </c>
       <c r="B22" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2941,37 +2950,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Herrestabodarna, Ång</t>
+          <t>Norr om Översttjärn, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>659273.777010394</v>
+        <v>659279.1509287338</v>
       </c>
       <c r="R22" t="n">
-        <v>7006787.146297781</v>
+        <v>7006953.990608242</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3025,22 +3034,26 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Anders Engström</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr"/>
+          <t>Via Anders Engström</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>91961371</v>
+        <v>107512083</v>
       </c>
       <c r="B23" t="n">
-        <v>81236</v>
+        <v>89392</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3053,37 +3066,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1312</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Herrestabodarna, Ång</t>
+          <t>Norr om Översttjärn, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>659290.9019446641</v>
+        <v>659279.1509287338</v>
       </c>
       <c r="R23" t="n">
-        <v>7006917.905069729</v>
+        <v>7006953.990608242</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3133,26 +3146,35 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Låga av gran (GRANLÅGA)</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Anders Engström</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr"/>
+          <t>Via Anders Engström</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>107512085</v>
+        <v>107512084</v>
       </c>
       <c r="B24" t="n">
-        <v>89356</v>
+        <v>81236</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3161,25 +3183,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5447</v>
+        <v>1312</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3248,7 +3270,7 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Låga av gran (GRANLÅGA)</t>
+          <t>Gammal gran (GAMGRAN)</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3270,10 +3292,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>107512086</v>
+        <v>107512082</v>
       </c>
       <c r="B25" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3286,21 +3308,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3366,6 +3388,11 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Gammal gran (GAMGRAN)</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3386,10 +3413,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>107512083</v>
+        <v>91961476</v>
       </c>
       <c r="B26" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3402,37 +3429,37 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Norr om Översttjärn, Ång</t>
+          <t>Finnkläppen, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>659279.1509287338</v>
+        <v>659083.9335428606</v>
       </c>
       <c r="R26" t="n">
-        <v>7006953.990608242</v>
+        <v>7006628.861753914</v>
       </c>
       <c r="S26" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3482,35 +3509,26 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>Låga av gran (GRANLÅGA)</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Anders Engström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Via Anders Engström</t>
-        </is>
-      </c>
-      <c r="AY26" t="inlineStr">
-        <is>
-          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
-        </is>
-      </c>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>107512084</v>
+        <v>91961302</v>
       </c>
       <c r="B27" t="n">
-        <v>81236</v>
+        <v>73631</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3519,41 +3537,41 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1312</v>
+        <v>6426</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Norr om Översttjärn, Ång</t>
+          <t>Finnkläppen, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>659279.1509287338</v>
+        <v>659094.0677532183</v>
       </c>
       <c r="R27" t="n">
-        <v>7006953.990608242</v>
+        <v>7006634.792985627</v>
       </c>
       <c r="S27" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3603,35 +3621,26 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Gammal gran (GAMGRAN)</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Anders Engström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Via Anders Engström</t>
-        </is>
-      </c>
-      <c r="AY27" t="inlineStr">
-        <is>
-          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
-        </is>
-      </c>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>107512082</v>
+        <v>91961374</v>
       </c>
       <c r="B28" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3644,37 +3653,37 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Norr om Översttjärn, Ång</t>
+          <t>Finnkläppen, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>659279.1509287338</v>
+        <v>659095.0166560742</v>
       </c>
       <c r="R28" t="n">
-        <v>7006953.990608242</v>
+        <v>7006633.934321265</v>
       </c>
       <c r="S28" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3724,28 +3733,19 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Gammal gran (GAMGRAN)</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Anders Engström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Via Anders Engström</t>
-        </is>
-      </c>
-      <c r="AY28" t="inlineStr">
-        <is>
-          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
-        </is>
-      </c>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 65056-2019.xlsx
+++ b/artfynd/A 65056-2019.xlsx
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>91961072</v>
+        <v>91961476</v>
       </c>
       <c r="B5" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,34 +1032,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Herrestabodarna, Ång</t>
+          <t>Finnkläppen, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>659072.1775210652</v>
+        <v>659083.9335428606</v>
       </c>
       <c r="R5" t="n">
-        <v>7006711.124582773</v>
+        <v>7006628.861753914</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>91962611</v>
+        <v>91961072</v>
       </c>
       <c r="B6" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>659190.1617904444</v>
+        <v>659072.1775210652</v>
       </c>
       <c r="R6" t="n">
-        <v>7006947.794306196</v>
+        <v>7006711.124582773</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1214,11 +1214,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Par i lämplig biotop</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91960450</v>
+        <v>91962611</v>
       </c>
       <c r="B7" t="n">
-        <v>89392</v>
+        <v>56395</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1285,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>659251.2029465982</v>
+        <v>659190.1617904444</v>
       </c>
       <c r="R7" t="n">
-        <v>7007006.025185607</v>
+        <v>7006947.794306196</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1331,6 +1326,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Par i lämplig biotop</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1357,10 +1357,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>91960449</v>
+        <v>91961302</v>
       </c>
       <c r="B8" t="n">
-        <v>89392</v>
+        <v>73631</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1369,38 +1369,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>6426</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Herrestabodarna, Ång</t>
+          <t>Finnkläppen, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>659281.9627203951</v>
+        <v>659094.0677532183</v>
       </c>
       <c r="R8" t="n">
-        <v>7006906.147980729</v>
+        <v>7006634.792985627</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>91960459</v>
+        <v>91960450</v>
       </c>
       <c r="B9" t="n">
         <v>89392</v>
@@ -1505,14 +1505,14 @@
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Finnkläppen, Ång</t>
+          <t>Herrestabodarna, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>659224.9334416302</v>
+        <v>659251.2029465982</v>
       </c>
       <c r="R9" t="n">
-        <v>7006748.072361713</v>
+        <v>7007006.025185607</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1581,10 +1581,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91960319</v>
+        <v>91960449</v>
       </c>
       <c r="B10" t="n">
-        <v>77541</v>
+        <v>89392</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1597,21 +1597,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>185</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1621,10 +1621,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>659232.9084223242</v>
+        <v>659281.9627203951</v>
       </c>
       <c r="R10" t="n">
-        <v>7006797.806848564</v>
+        <v>7006906.147980729</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1693,7 +1693,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>91960462</v>
+        <v>91960459</v>
       </c>
       <c r="B11" t="n">
         <v>89392</v>
@@ -1729,14 +1729,14 @@
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Herrestabodarna, Ång</t>
+          <t>Finnkläppen, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>659237.9128536507</v>
+        <v>659224.9334416302</v>
       </c>
       <c r="R11" t="n">
-        <v>7006779.041238324</v>
+        <v>7006748.072361713</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>91960753</v>
+        <v>91960319</v>
       </c>
       <c r="B12" t="n">
-        <v>78596</v>
+        <v>77541</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1817,25 +1817,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6462</v>
+        <v>185</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>659272.828099279</v>
+        <v>659232.9084223242</v>
       </c>
       <c r="R12" t="n">
-        <v>7006788.004869465</v>
+        <v>7006797.806848564</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1917,10 +1917,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>91960346</v>
+        <v>91960462</v>
       </c>
       <c r="B13" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1929,25 +1929,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1957,10 +1957,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>659313.1460876486</v>
+        <v>659237.9128536507</v>
       </c>
       <c r="R13" t="n">
-        <v>7006944.803038528</v>
+        <v>7006779.041238324</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2029,10 +2029,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>91960456</v>
+        <v>91960753</v>
       </c>
       <c r="B14" t="n">
-        <v>89392</v>
+        <v>78596</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2041,25 +2041,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>6462</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>659353.8795536701</v>
+        <v>659272.828099279</v>
       </c>
       <c r="R14" t="n">
-        <v>7006936.853411513</v>
+        <v>7006788.004869465</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2141,10 +2141,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>91960464</v>
+        <v>91960346</v>
       </c>
       <c r="B15" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2153,25 +2153,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2181,10 +2181,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>659227.1340141161</v>
+        <v>659313.1460876486</v>
       </c>
       <c r="R15" t="n">
-        <v>7006786.205500577</v>
+        <v>7006944.803038528</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>91960451</v>
+        <v>91960456</v>
       </c>
       <c r="B16" t="n">
         <v>89392</v>
@@ -2293,10 +2293,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>659255.1834092112</v>
+        <v>659353.8795536701</v>
       </c>
       <c r="R16" t="n">
-        <v>7007008.031952608</v>
+        <v>7006936.853411513</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2365,10 +2365,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>91961474</v>
+        <v>91960464</v>
       </c>
       <c r="B17" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2381,21 +2381,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2405,10 +2405,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>659310.981152857</v>
+        <v>659227.1340141161</v>
       </c>
       <c r="R17" t="n">
-        <v>7006951.938709745</v>
+        <v>7006786.205500577</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>91962610</v>
+        <v>91961374</v>
       </c>
       <c r="B18" t="n">
-        <v>56395</v>
+        <v>81236</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2493,34 +2493,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Herrestabodarna, Ång</t>
+          <t>Finnkläppen, Ång</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>659239.0762625488</v>
+        <v>659095.0166560742</v>
       </c>
       <c r="R18" t="n">
-        <v>7006792.226079228</v>
+        <v>7006633.934321265</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2589,10 +2589,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>91961071</v>
+        <v>91960451</v>
       </c>
       <c r="B19" t="n">
-        <v>78569</v>
+        <v>89392</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2605,21 +2605,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>659273.777010394</v>
+        <v>659255.1834092112</v>
       </c>
       <c r="R19" t="n">
-        <v>7006787.146297781</v>
+        <v>7007008.031952608</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2701,10 +2701,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>91961371</v>
+        <v>91961474</v>
       </c>
       <c r="B20" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2717,21 +2717,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2741,10 +2741,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>659290.9019446641</v>
+        <v>659310.981152857</v>
       </c>
       <c r="R20" t="n">
-        <v>7006917.905069729</v>
+        <v>7006951.938709745</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>107512085</v>
+        <v>91962610</v>
       </c>
       <c r="B21" t="n">
-        <v>89356</v>
+        <v>56395</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2825,41 +2825,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Norr om Översttjärn, Ång</t>
+          <t>Herrestabodarna, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>659279.1509287338</v>
+        <v>659239.0762625488</v>
       </c>
       <c r="R21" t="n">
-        <v>7006953.990608242</v>
+        <v>7006792.226079228</v>
       </c>
       <c r="S21" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2909,35 +2909,26 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Låga av gran (GRANLÅGA)</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Anders Engström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Via Anders Engström</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr">
-        <is>
-          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
-        </is>
-      </c>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>107512086</v>
+        <v>91961071</v>
       </c>
       <c r="B22" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2950,37 +2941,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Norr om Översttjärn, Ång</t>
+          <t>Herrestabodarna, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>659279.1509287338</v>
+        <v>659273.777010394</v>
       </c>
       <c r="R22" t="n">
-        <v>7006953.990608242</v>
+        <v>7006787.146297781</v>
       </c>
       <c r="S22" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3034,26 +3025,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Anders Engström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Via Anders Engström</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr">
-        <is>
-          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
-        </is>
-      </c>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>107512083</v>
+        <v>91961371</v>
       </c>
       <c r="B23" t="n">
-        <v>89392</v>
+        <v>81236</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3066,37 +3053,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Norr om Översttjärn, Ång</t>
+          <t>Herrestabodarna, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>659279.1509287338</v>
+        <v>659290.9019446641</v>
       </c>
       <c r="R23" t="n">
-        <v>7006953.990608242</v>
+        <v>7006917.905069729</v>
       </c>
       <c r="S23" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3146,35 +3133,26 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Låga av gran (GRANLÅGA)</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Anders Engström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Via Anders Engström</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr">
-        <is>
-          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
-        </is>
-      </c>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>107512084</v>
+        <v>107512085</v>
       </c>
       <c r="B24" t="n">
-        <v>81236</v>
+        <v>89356</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3183,25 +3161,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1312</v>
+        <v>5447</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3270,7 +3248,7 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Gammal gran (GAMGRAN)</t>
+          <t>Låga av gran (GRANLÅGA)</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3292,10 +3270,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>107512082</v>
+        <v>107512086</v>
       </c>
       <c r="B25" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3308,21 +3286,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3388,11 +3366,6 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Gammal gran (GAMGRAN)</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3413,10 +3386,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>91961476</v>
+        <v>107512083</v>
       </c>
       <c r="B26" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3429,37 +3402,37 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Finnkläppen, Ång</t>
+          <t>Norr om Översttjärn, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>659083.9335428606</v>
+        <v>659279.1509287338</v>
       </c>
       <c r="R26" t="n">
-        <v>7006628.861753914</v>
+        <v>7006953.990608242</v>
       </c>
       <c r="S26" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3509,26 +3482,35 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Låga av gran (GRANLÅGA)</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Anders Engström</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY26" t="inlineStr"/>
+          <t>Via Anders Engström</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>91961302</v>
+        <v>107512084</v>
       </c>
       <c r="B27" t="n">
-        <v>73631</v>
+        <v>81236</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3537,41 +3519,41 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6426</v>
+        <v>1312</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Finnkläppen, Ång</t>
+          <t>Norr om Översttjärn, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>659094.0677532183</v>
+        <v>659279.1509287338</v>
       </c>
       <c r="R27" t="n">
-        <v>7006634.792985627</v>
+        <v>7006953.990608242</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3621,26 +3603,35 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Gammal gran (GAMGRAN)</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Anders Engström</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY27" t="inlineStr"/>
+          <t>Via Anders Engström</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>91961374</v>
+        <v>107512082</v>
       </c>
       <c r="B28" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3653,37 +3644,37 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Finnkläppen, Ång</t>
+          <t>Norr om Översttjärn, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>659095.0166560742</v>
+        <v>659279.1509287338</v>
       </c>
       <c r="R28" t="n">
-        <v>7006633.934321265</v>
+        <v>7006953.990608242</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3733,19 +3724,28 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Gammal gran (GAMGRAN)</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Anders Engström</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY28" t="inlineStr"/>
+          <t>Via Anders Engström</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
